--- a/2023-04-08 Valores Atualizados das OS.xlsx
+++ b/2023-04-08 Valores Atualizados das OS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>DATA</t>
   </si>
@@ -95,6 +95,12 @@
     <t>H</t>
   </si>
   <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>VISA</t>
   </si>
   <si>
@@ -137,7 +143,7 @@
     <t>3 - R$ 529.70</t>
   </si>
   <si>
-    <t>Maio 2023 - R$ 803.57</t>
+    <t>Maio 2023 - R$ 811.68</t>
   </si>
   <si>
     <t>2 - R$ 117.68</t>
@@ -152,37 +158,52 @@
     <t>5 - R$ 10.77</t>
   </si>
   <si>
-    <t>Junho 2023 - R$ 685.88</t>
+    <t>8 - R$ 8.11</t>
+  </si>
+  <si>
+    <t>Junho 2023 - R$ 693.99</t>
   </si>
   <si>
     <t>5 - R$ 685.88</t>
   </si>
   <si>
-    <t>Julho 2023 - R$ 685.88</t>
-  </si>
-  <si>
-    <t>Agosto 2023 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>7 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>Setembro 2023 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>Outubro 2023 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>Novembro 2023 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>6 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>Dezembro 2023 - R$ 10.77</t>
-  </si>
-  <si>
-    <t>Janeiro 2024 - R$ 10.77</t>
+    <t>6 - R$ 8.11</t>
+  </si>
+  <si>
+    <t>Julho 2023 - R$ 693.99</t>
+  </si>
+  <si>
+    <t>Agosto 2023 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>7 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Setembro 2023 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Outubro 2023 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Novembro 2023 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>6 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Dezembro 2023 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Janeiro 2024 - R$ 18.88</t>
+  </si>
+  <si>
+    <t>Fevereiro 2024 - R$ 8.11</t>
+  </si>
+  <si>
+    <t>Marco 2024 - R$ 8.11</t>
+  </si>
+  <si>
+    <t>Abril 2024 - R$ 8.11</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="428">
+  <fonts count="550">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -365,55 +386,81 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="20.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -531,69 +578,67 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -695,61 +740,56 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -855,61 +895,58 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1019,65 +1056,59 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1183,61 +1214,56 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1343,61 +1369,56 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1507,61 +1528,55 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1667,61 +1682,56 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1831,73 +1841,530 @@
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="20.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="20.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="20.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -2051,7 +2518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="576">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -2179,6 +2646,30 @@
     <xf numFmtId="7" fontId="41" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="42" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="44" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="48" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="49" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -2254,52 +2745,28 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="51" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="58" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2308,7 +2775,7 @@
     <xf numFmtId="49" fontId="59" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="60" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="61" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2368,67 +2835,67 @@
     <xf numFmtId="49" fontId="79" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="80" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="81" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="82" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="83" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="84" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="85" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="86" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="87" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="81" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="82" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="83" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="85" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="86" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="87" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="88" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="89" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="90" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="91" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="92" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="93" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="94" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="95" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="89" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="90" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="91" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="92" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="93" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="94" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="95" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="96" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="97" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="98" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="99" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="100" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="97" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="98" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="100" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="101" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2437,7 +2904,7 @@
     <xf numFmtId="49" fontId="102" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="103" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="103" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="104" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2485,52 +2952,52 @@
     <xf numFmtId="49" fontId="118" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="119" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="120" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="121" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="122" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="123" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="124" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="125" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="126" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="120" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="121" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="122" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="123" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="124" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="125" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="126" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="127" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="128" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="129" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="130" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="131" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="132" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="133" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="134" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="128" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="129" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="130" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="131" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="132" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="133" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="134" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="135" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2545,10 +3012,10 @@
     <xf numFmtId="49" fontId="138" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="139" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="140" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="139" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="140" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="141" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2599,52 +3066,52 @@
     <xf numFmtId="49" fontId="156" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="157" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="158" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="159" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="160" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="161" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="162" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="163" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="164" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="158" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="159" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="160" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="161" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="162" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="163" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="164" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="165" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="166" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="167" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="168" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="169" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="170" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="171" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="172" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="166" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="167" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="168" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="169" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="170" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="171" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="172" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="173" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2653,16 +3120,16 @@
     <xf numFmtId="49" fontId="174" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="175" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="176" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="177" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="178" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="175" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="176" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="177" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="178" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="179" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2716,52 +3183,52 @@
     <xf numFmtId="49" fontId="195" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="196" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="197" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="198" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="199" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="200" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="201" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="202" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="203" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="197" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="198" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="199" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="200" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="201" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="202" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="203" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="204" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="205" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="206" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="207" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="208" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="209" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="210" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="211" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="205" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="206" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="207" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="208" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="209" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="210" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="211" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="212" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2782,7 +3249,7 @@
     <xf numFmtId="49" fontId="217" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="218" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="218" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="219" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2833,52 +3300,52 @@
     <xf numFmtId="49" fontId="234" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="235" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="236" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="237" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="238" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="239" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="240" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="241" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="242" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="236" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="237" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="238" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="239" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="240" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="241" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="242" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="243" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="244" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="245" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="246" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="247" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="248" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="249" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="250" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="244" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="245" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="246" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="247" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="248" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="249" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="250" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="251" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2893,10 +3360,10 @@
     <xf numFmtId="49" fontId="254" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="255" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="256" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="255" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="256" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="257" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -2947,52 +3414,52 @@
     <xf numFmtId="49" fontId="272" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="273" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="274" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="275" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="276" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="277" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="278" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="279" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="280" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="274" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="275" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="276" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="277" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="278" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="279" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="280" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="281" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="282" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="283" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="284" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="285" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="286" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="287" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="288" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="282" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="283" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="284" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="285" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="286" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="287" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="288" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="289" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3007,10 +3474,10 @@
     <xf numFmtId="49" fontId="292" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="293" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="294" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="293" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="294" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="295" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3064,52 +3531,52 @@
     <xf numFmtId="49" fontId="311" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="312" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="313" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="314" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="315" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="316" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="317" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="318" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="319" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="313" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="314" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="315" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="316" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="317" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="318" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="319" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="320" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="321" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="322" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="323" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="324" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="325" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="326" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="327" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="321" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="322" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="323" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="324" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="325" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="326" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="327" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="328" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3127,7 +3594,7 @@
     <xf numFmtId="49" fontId="332" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="333" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="333" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="334" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3178,52 +3645,52 @@
     <xf numFmtId="49" fontId="349" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="350" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="351" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="352" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="353" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="354" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="355" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="356" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="357" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="351" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="352" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="353" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="354" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="355" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="356" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="357" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="358" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="359" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="360" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="361" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="362" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="363" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="364" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="365" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="359" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="360" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="361" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="362" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="363" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="364" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="365" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="366" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3238,10 +3705,10 @@
     <xf numFmtId="49" fontId="369" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="370" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="371" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="370" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="371" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="372" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3295,52 +3762,52 @@
     <xf numFmtId="49" fontId="388" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="389" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="390" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="391" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="392" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="393" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="394" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="395" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="396" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="390" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="391" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="392" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="393" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="394" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="395" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="396" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="397" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="398" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="399" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="400" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="401" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="402" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="403" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="404" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="398" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="399" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="400" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="401" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="402" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="403" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="404" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="405" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3355,7 +3822,7 @@
     <xf numFmtId="49" fontId="408" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="409" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="409" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="410" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3364,7 +3831,7 @@
     <xf numFmtId="49" fontId="411" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="412" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="49" fontId="412" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="413" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
@@ -3410,6 +3877,372 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="427" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="428" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="429" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="430" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="431" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="432" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="433" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="434" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="435" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="437" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="438" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="439" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="440" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="441" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="442" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="443" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="444" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="445" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="446" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="447" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="448" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="449" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="450" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="451" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="452" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="453" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="454" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="455" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="456" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="457" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="458" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="459" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="460" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="461" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="462" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="463" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="464" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="465" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="466" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="467" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="468" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="469" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="470" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="471" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="472" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="474" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="475" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="476" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="477" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="478" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="479" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="480" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="481" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="482" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="483" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="484" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="485" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="486" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="487" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="488" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="489" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="490" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="491" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="492" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="493" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="494" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="495" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="496" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="497" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="498" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="499" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="500" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="501" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="502" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="503" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="504" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="505" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="506" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="507" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="508" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="509" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="510" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="511" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="513" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="514" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="515" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="516" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="517" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="518" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="519" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="520" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="521" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="522" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="523" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="524" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="525" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="526" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="527" fillId="6" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="528" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="529" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="530" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="531" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="532" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="533" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="534" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="535" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="536" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="537" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="538" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="539" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="540" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="541" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="542" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="543" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="544" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="545" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="546" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="547" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="548" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="549" fillId="5" borderId="4" xfId="0" applyAlignment="true" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3418,7 +4251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -3439,7 +4272,7 @@
     <col min="16" max="16" width="27.34375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="true">
+    <row r="1" ht="30.0" customHeight="true">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
@@ -3514,19 +4347,19 @@
       <c r="H2" t="n" s="10">
         <v>117.68</v>
       </c>
-      <c r="L2" t="s" s="43">
-        <v>27</v>
-      </c>
-      <c r="M2" t="n" s="44">
+      <c r="L2" t="s" s="51">
+        <v>29</v>
+      </c>
+      <c r="M2" t="n" s="52">
         <v>0.009899999999999999</v>
       </c>
-      <c r="N2" t="n" s="45">
+      <c r="N2" t="n" s="53">
         <v>0.019299999999999998</v>
       </c>
-      <c r="O2" t="n" s="46">
+      <c r="O2" t="n" s="54">
         <v>0.021099999999999997</v>
       </c>
-      <c r="P2" t="n" s="47">
+      <c r="P2" t="n" s="55">
         <v>0.0269</v>
       </c>
     </row>
@@ -3555,19 +4388,19 @@
       <c r="H3" t="n" s="18">
         <v>529.7</v>
       </c>
-      <c r="L3" t="s" s="48">
-        <v>28</v>
-      </c>
-      <c r="M3" t="n" s="49">
+      <c r="L3" t="s" s="56">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n" s="57">
         <v>0.009899999999999999</v>
       </c>
-      <c r="N3" t="n" s="50">
+      <c r="N3" t="n" s="58">
         <v>0.019299999999999998</v>
       </c>
-      <c r="O3" t="n" s="51">
+      <c r="O3" t="n" s="59">
         <v>0.021099999999999997</v>
       </c>
-      <c r="P3" t="n" s="52">
+      <c r="P3" t="n" s="60">
         <v>0.0269</v>
       </c>
     </row>
@@ -3596,19 +4429,19 @@
       <c r="H4" t="n" s="26">
         <v>1442.9</v>
       </c>
-      <c r="L4" t="s" s="53">
-        <v>29</v>
-      </c>
-      <c r="M4" t="n" s="54">
+      <c r="L4" t="s" s="61">
+        <v>31</v>
+      </c>
+      <c r="M4" t="n" s="62">
         <v>0.015</v>
       </c>
-      <c r="N4" t="n" s="55">
+      <c r="N4" t="n" s="63">
         <v>0.0229</v>
       </c>
-      <c r="O4" t="n" s="56">
+      <c r="O4" t="n" s="64">
         <v>0.0262</v>
       </c>
-      <c r="P4" t="n" s="57">
+      <c r="P4" t="n" s="65">
         <v>0.031400000000000004</v>
       </c>
     </row>
@@ -3637,19 +4470,19 @@
       <c r="H5" t="n" s="34">
         <v>582.45</v>
       </c>
-      <c r="L5" t="s" s="58">
-        <v>30</v>
-      </c>
-      <c r="M5" t="n" s="59">
+      <c r="L5" t="s" s="66">
+        <v>32</v>
+      </c>
+      <c r="M5" t="n" s="67">
         <v>0.0</v>
       </c>
-      <c r="N5" t="n" s="60">
+      <c r="N5" t="n" s="68">
         <v>0.029900000000000003</v>
       </c>
-      <c r="O5" t="n" s="61">
+      <c r="O5" t="n" s="69">
         <v>0.03</v>
       </c>
-      <c r="P5" t="n" s="62">
+      <c r="P5" t="n" s="70">
         <v>0.0325</v>
       </c>
     </row>
@@ -3678,1357 +4511,1779 @@
       <c r="H6" t="n" s="42">
         <v>96.91</v>
       </c>
-      <c r="L6" t="s" s="63">
-        <v>31</v>
-      </c>
-      <c r="M6" t="n" s="64">
+      <c r="L6" t="s" s="71">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n" s="72">
         <v>0.0</v>
       </c>
-      <c r="N6" t="n" s="65">
+      <c r="N6" t="n" s="73">
         <v>0.018799999999999997</v>
       </c>
-      <c r="O6" t="n" s="66">
+      <c r="O6" t="n" s="74">
         <v>0.026099999999999998</v>
       </c>
-      <c r="P6" t="n" s="67">
+      <c r="P6" t="n" s="75">
         <v>0.030899999999999997</v>
       </c>
     </row>
-    <row r="9" ht="37.5" customHeight="true" s="68" customFormat="true">
-      <c r="A9" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="37.5" customHeight="true">
-      <c r="A10" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="70" t="s">
+    <row r="7" ht="25.0" customHeight="true">
+      <c r="A7" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="44">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n" s="45">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="s" s="46">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n" s="47">
+        <v>12.0</v>
+      </c>
+      <c r="F7" t="s" s="48">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n" s="49">
+        <v>2.69</v>
+      </c>
+      <c r="H7" t="n" s="50">
+        <v>97.31</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="true" s="76" customFormat="true">
+      <c r="A10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="71" t="s">
+    </row>
+    <row r="11" ht="37.5" customHeight="true">
+      <c r="A11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="C11" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="D11" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="E11" s="81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" ht="25.0" customHeight="true">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" t="n" s="76">
+      <c r="F11" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="25.0" customHeight="true">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" t="n" s="84">
         <v>1.0</v>
       </c>
     </row>
-    <row r="12" ht="25.0" customHeight="true">
-      <c r="A12" t="n" s="77">
+    <row r="13" ht="25.0" customHeight="true">
+      <c r="A13" t="n" s="85">
         <v>2.0</v>
       </c>
-      <c r="B12" t="s" s="78">
+      <c r="B13" t="s" s="86">
+        <v>42</v>
+      </c>
+      <c r="C13" t="n" s="87">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="88">
+        <v>5.0</v>
+      </c>
+      <c r="E13" t="n" s="89">
+        <v>6.0</v>
+      </c>
+      <c r="F13" t="n" s="90">
+        <v>7.0</v>
+      </c>
+      <c r="G13" t="n" s="91">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="14" ht="25.0" customHeight="true">
+      <c r="A14" t="n" s="92">
+        <v>9.0</v>
+      </c>
+      <c r="B14" t="n" s="93">
+        <v>10.0</v>
+      </c>
+      <c r="C14" t="n" s="94">
+        <v>11.0</v>
+      </c>
+      <c r="D14" t="n" s="95">
+        <v>12.0</v>
+      </c>
+      <c r="E14" t="n" s="96">
+        <v>13.0</v>
+      </c>
+      <c r="F14" t="n" s="97">
+        <v>14.0</v>
+      </c>
+      <c r="G14" t="n" s="98">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15" ht="25.0" customHeight="true">
+      <c r="A15" t="n" s="99">
+        <v>16.0</v>
+      </c>
+      <c r="B15" t="n" s="100">
+        <v>17.0</v>
+      </c>
+      <c r="C15" t="n" s="101">
+        <v>18.0</v>
+      </c>
+      <c r="D15" t="n" s="102">
+        <v>19.0</v>
+      </c>
+      <c r="E15" t="n" s="103">
+        <v>20.0</v>
+      </c>
+      <c r="F15" t="n" s="104">
+        <v>21.0</v>
+      </c>
+      <c r="G15" t="n" s="105">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="16" ht="25.0" customHeight="true">
+      <c r="A16" t="n" s="106">
+        <v>23.0</v>
+      </c>
+      <c r="B16" t="n" s="107">
+        <v>24.0</v>
+      </c>
+      <c r="C16" t="n" s="108">
+        <v>25.0</v>
+      </c>
+      <c r="D16" t="n" s="109">
+        <v>26.0</v>
+      </c>
+      <c r="E16" t="n" s="110">
+        <v>27.0</v>
+      </c>
+      <c r="F16" t="n" s="111">
+        <v>28.0</v>
+      </c>
+      <c r="G16" t="n" s="112">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="17" ht="25.0" customHeight="true">
+      <c r="A17" t="n" s="113">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" customHeight="true" s="114" customFormat="true">
+      <c r="A20" s="114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" customHeight="true">
+      <c r="A21" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="n" s="79">
+      <c r="G21" s="121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="25.0" customHeight="true">
+      <c r="A22" s="0"/>
+      <c r="B22" t="n" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="s" s="123">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s" s="124">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s" s="125">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s" s="126">
+        <v>47</v>
+      </c>
+      <c r="G22" t="n" s="127">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23" ht="25.0" customHeight="true">
+      <c r="A23" t="n" s="128">
+        <v>7.0</v>
+      </c>
+      <c r="B23" t="s" s="129">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n" s="130">
+        <v>9.0</v>
+      </c>
+      <c r="D23" t="n" s="131">
+        <v>10.0</v>
+      </c>
+      <c r="E23" t="n" s="132">
+        <v>11.0</v>
+      </c>
+      <c r="F23" t="n" s="133">
+        <v>12.0</v>
+      </c>
+      <c r="G23" t="n" s="134">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="24" ht="25.0" customHeight="true">
+      <c r="A24" t="n" s="135">
+        <v>14.0</v>
+      </c>
+      <c r="B24" t="n" s="136">
+        <v>15.0</v>
+      </c>
+      <c r="C24" t="n" s="137">
+        <v>16.0</v>
+      </c>
+      <c r="D24" t="n" s="138">
+        <v>17.0</v>
+      </c>
+      <c r="E24" t="n" s="139">
+        <v>18.0</v>
+      </c>
+      <c r="F24" t="n" s="140">
+        <v>19.0</v>
+      </c>
+      <c r="G24" t="n" s="141">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="25" ht="25.0" customHeight="true">
+      <c r="A25" t="n" s="142">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n" s="143">
+        <v>22.0</v>
+      </c>
+      <c r="C25" t="n" s="144">
+        <v>23.0</v>
+      </c>
+      <c r="D25" t="n" s="145">
+        <v>24.0</v>
+      </c>
+      <c r="E25" t="n" s="146">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="n" s="147">
+        <v>26.0</v>
+      </c>
+      <c r="G25" t="n" s="148">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="26" ht="25.0" customHeight="true">
+      <c r="A26" t="n" s="149">
+        <v>28.0</v>
+      </c>
+      <c r="B26" t="n" s="150">
+        <v>29.0</v>
+      </c>
+      <c r="C26" t="n" s="151">
+        <v>30.0</v>
+      </c>
+      <c r="D26" t="n" s="152">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="30" ht="37.5" customHeight="true" s="153" customFormat="true">
+      <c r="A30" s="153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" ht="37.5" customHeight="true">
+      <c r="A31" s="154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" ht="25.0" customHeight="true">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" t="n" s="161">
+        <v>1.0</v>
+      </c>
+      <c r="F32" t="n" s="162">
+        <v>2.0</v>
+      </c>
+      <c r="G32" t="n" s="163">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33" ht="25.0" customHeight="true">
+      <c r="A33" t="n" s="164">
         <v>4.0</v>
       </c>
-      <c r="D12" t="n" s="80">
+      <c r="B33" t="s" s="165">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s" s="166">
+        <v>51</v>
+      </c>
+      <c r="D33" t="n" s="167">
+        <v>7.0</v>
+      </c>
+      <c r="E33" t="n" s="168">
+        <v>8.0</v>
+      </c>
+      <c r="F33" t="n" s="169">
+        <v>9.0</v>
+      </c>
+      <c r="G33" t="n" s="170">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="34" ht="25.0" customHeight="true">
+      <c r="A34" t="n" s="171">
+        <v>11.0</v>
+      </c>
+      <c r="B34" t="n" s="172">
+        <v>12.0</v>
+      </c>
+      <c r="C34" t="n" s="173">
+        <v>13.0</v>
+      </c>
+      <c r="D34" t="n" s="174">
+        <v>14.0</v>
+      </c>
+      <c r="E34" t="n" s="175">
+        <v>15.0</v>
+      </c>
+      <c r="F34" t="n" s="176">
+        <v>16.0</v>
+      </c>
+      <c r="G34" t="n" s="177">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="35" ht="25.0" customHeight="true">
+      <c r="A35" t="n" s="178">
+        <v>18.0</v>
+      </c>
+      <c r="B35" t="n" s="179">
+        <v>19.0</v>
+      </c>
+      <c r="C35" t="n" s="180">
+        <v>20.0</v>
+      </c>
+      <c r="D35" t="n" s="181">
+        <v>21.0</v>
+      </c>
+      <c r="E35" t="n" s="182">
+        <v>22.0</v>
+      </c>
+      <c r="F35" t="n" s="183">
+        <v>23.0</v>
+      </c>
+      <c r="G35" t="n" s="184">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="36" ht="25.0" customHeight="true">
+      <c r="A36" t="n" s="185">
+        <v>25.0</v>
+      </c>
+      <c r="B36" t="n" s="186">
+        <v>26.0</v>
+      </c>
+      <c r="C36" t="n" s="187">
+        <v>27.0</v>
+      </c>
+      <c r="D36" t="n" s="188">
+        <v>28.0</v>
+      </c>
+      <c r="E36" t="n" s="189">
+        <v>29.0</v>
+      </c>
+      <c r="F36" t="n" s="190">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="40" ht="37.5" customHeight="true" s="191" customFormat="true">
+      <c r="A40" s="191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" ht="37.5" customHeight="true">
+      <c r="A41" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="195" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="198" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="25.0" customHeight="true">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" t="n" s="199">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="25.0" customHeight="true">
+      <c r="A43" t="n" s="200">
+        <v>2.0</v>
+      </c>
+      <c r="B43" t="s" s="201">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s" s="202">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s" s="203">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s" s="204">
+        <v>51</v>
+      </c>
+      <c r="F43" t="n" s="205">
+        <v>7.0</v>
+      </c>
+      <c r="G43" t="n" s="206">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="44" ht="25.0" customHeight="true">
+      <c r="A44" t="n" s="207">
+        <v>9.0</v>
+      </c>
+      <c r="B44" t="n" s="208">
+        <v>10.0</v>
+      </c>
+      <c r="C44" t="n" s="209">
+        <v>11.0</v>
+      </c>
+      <c r="D44" t="n" s="210">
+        <v>12.0</v>
+      </c>
+      <c r="E44" t="n" s="211">
+        <v>13.0</v>
+      </c>
+      <c r="F44" t="n" s="212">
+        <v>14.0</v>
+      </c>
+      <c r="G44" t="n" s="213">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="45" ht="25.0" customHeight="true">
+      <c r="A45" t="n" s="214">
+        <v>16.0</v>
+      </c>
+      <c r="B45" t="n" s="215">
+        <v>17.0</v>
+      </c>
+      <c r="C45" t="n" s="216">
+        <v>18.0</v>
+      </c>
+      <c r="D45" t="n" s="217">
+        <v>19.0</v>
+      </c>
+      <c r="E45" t="n" s="218">
+        <v>20.0</v>
+      </c>
+      <c r="F45" t="n" s="219">
+        <v>21.0</v>
+      </c>
+      <c r="G45" t="n" s="220">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="46" ht="25.0" customHeight="true">
+      <c r="A46" t="n" s="221">
+        <v>23.0</v>
+      </c>
+      <c r="B46" t="n" s="222">
+        <v>24.0</v>
+      </c>
+      <c r="C46" t="n" s="223">
+        <v>25.0</v>
+      </c>
+      <c r="D46" t="n" s="224">
+        <v>26.0</v>
+      </c>
+      <c r="E46" t="n" s="225">
+        <v>27.0</v>
+      </c>
+      <c r="F46" t="n" s="226">
+        <v>28.0</v>
+      </c>
+      <c r="G46" t="n" s="227">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="47" ht="25.0" customHeight="true">
+      <c r="A47" t="n" s="228">
+        <v>30.0</v>
+      </c>
+      <c r="B47" t="n" s="229">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="50" ht="37.5" customHeight="true" s="230" customFormat="true">
+      <c r="A50" s="230" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" ht="37.5" customHeight="true">
+      <c r="A51" s="231" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="233" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="234" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="236" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="237" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" ht="25.0" customHeight="true">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0"/>
+      <c r="C52" t="n" s="238">
+        <v>1.0</v>
+      </c>
+      <c r="D52" t="n" s="239">
+        <v>2.0</v>
+      </c>
+      <c r="E52" t="n" s="240">
+        <v>3.0</v>
+      </c>
+      <c r="F52" t="n" s="241">
+        <v>4.0</v>
+      </c>
+      <c r="G52" t="n" s="242">
         <v>5.0</v>
       </c>
-      <c r="E12" t="n" s="81">
+    </row>
+    <row r="53" ht="25.0" customHeight="true">
+      <c r="A53" t="n" s="243">
         <v>6.0</v>
       </c>
-      <c r="F12" t="n" s="82">
+      <c r="B53" t="s" s="244">
+        <v>54</v>
+      </c>
+      <c r="C53" t="n" s="245">
+        <v>8.0</v>
+      </c>
+      <c r="D53" t="n" s="246">
+        <v>9.0</v>
+      </c>
+      <c r="E53" t="n" s="247">
+        <v>10.0</v>
+      </c>
+      <c r="F53" t="n" s="248">
+        <v>11.0</v>
+      </c>
+      <c r="G53" t="n" s="249">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="54" ht="25.0" customHeight="true">
+      <c r="A54" t="n" s="250">
+        <v>13.0</v>
+      </c>
+      <c r="B54" t="n" s="251">
+        <v>14.0</v>
+      </c>
+      <c r="C54" t="n" s="252">
+        <v>15.0</v>
+      </c>
+      <c r="D54" t="n" s="253">
+        <v>16.0</v>
+      </c>
+      <c r="E54" t="n" s="254">
+        <v>17.0</v>
+      </c>
+      <c r="F54" t="n" s="255">
+        <v>18.0</v>
+      </c>
+      <c r="G54" t="n" s="256">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="55" ht="25.0" customHeight="true">
+      <c r="A55" t="n" s="257">
+        <v>20.0</v>
+      </c>
+      <c r="B55" t="n" s="258">
+        <v>21.0</v>
+      </c>
+      <c r="C55" t="n" s="259">
+        <v>22.0</v>
+      </c>
+      <c r="D55" t="n" s="260">
+        <v>23.0</v>
+      </c>
+      <c r="E55" t="n" s="261">
+        <v>24.0</v>
+      </c>
+      <c r="F55" t="n" s="262">
+        <v>25.0</v>
+      </c>
+      <c r="G55" t="n" s="263">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="56" ht="25.0" customHeight="true">
+      <c r="A56" t="n" s="264">
+        <v>27.0</v>
+      </c>
+      <c r="B56" t="n" s="265">
+        <v>28.0</v>
+      </c>
+      <c r="C56" t="n" s="266">
+        <v>29.0</v>
+      </c>
+      <c r="D56" t="n" s="267">
+        <v>30.0</v>
+      </c>
+      <c r="E56" t="n" s="268">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="60" ht="37.5" customHeight="true" s="269" customFormat="true">
+      <c r="A60" s="269" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" ht="37.5" customHeight="true">
+      <c r="A61" s="270" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="271" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="272" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="273" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="274" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="275" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="276" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" ht="25.0" customHeight="true">
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" t="n" s="277">
+        <v>1.0</v>
+      </c>
+      <c r="G62" t="n" s="278">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63" ht="25.0" customHeight="true">
+      <c r="A63" t="n" s="279">
+        <v>3.0</v>
+      </c>
+      <c r="B63" t="n" s="280">
+        <v>4.0</v>
+      </c>
+      <c r="C63" t="s" s="281">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s" s="282">
+        <v>51</v>
+      </c>
+      <c r="E63" t="n" s="283">
         <v>7.0</v>
       </c>
-      <c r="G12" t="n" s="83">
+      <c r="F63" t="n" s="284">
         <v>8.0</v>
       </c>
-    </row>
-    <row r="13" ht="25.0" customHeight="true">
-      <c r="A13" t="n" s="84">
+      <c r="G63" t="n" s="285">
         <v>9.0</v>
       </c>
-      <c r="B13" t="n" s="85">
+    </row>
+    <row r="64" ht="25.0" customHeight="true">
+      <c r="A64" t="n" s="286">
         <v>10.0</v>
       </c>
-      <c r="C13" t="n" s="86">
+      <c r="B64" t="n" s="287">
         <v>11.0</v>
       </c>
-      <c r="D13" t="n" s="87">
+      <c r="C64" t="n" s="288">
         <v>12.0</v>
       </c>
-      <c r="E13" t="n" s="88">
+      <c r="D64" t="n" s="289">
         <v>13.0</v>
       </c>
-      <c r="F13" t="n" s="89">
+      <c r="E64" t="n" s="290">
         <v>14.0</v>
       </c>
-      <c r="G13" t="n" s="90">
+      <c r="F64" t="n" s="291">
         <v>15.0</v>
       </c>
-    </row>
-    <row r="14" ht="25.0" customHeight="true">
-      <c r="A14" t="n" s="91">
+      <c r="G64" t="n" s="292">
         <v>16.0</v>
       </c>
-      <c r="B14" t="n" s="92">
+    </row>
+    <row r="65" ht="25.0" customHeight="true">
+      <c r="A65" t="n" s="293">
         <v>17.0</v>
       </c>
-      <c r="C14" t="n" s="93">
+      <c r="B65" t="n" s="294">
         <v>18.0</v>
       </c>
-      <c r="D14" t="n" s="94">
+      <c r="C65" t="n" s="295">
         <v>19.0</v>
       </c>
-      <c r="E14" t="n" s="95">
+      <c r="D65" t="n" s="296">
         <v>20.0</v>
       </c>
-      <c r="F14" t="n" s="96">
+      <c r="E65" t="n" s="297">
         <v>21.0</v>
       </c>
-      <c r="G14" t="n" s="97">
+      <c r="F65" t="n" s="298">
         <v>22.0</v>
       </c>
-    </row>
-    <row r="15" ht="25.0" customHeight="true">
-      <c r="A15" t="n" s="98">
+      <c r="G65" t="n" s="299">
         <v>23.0</v>
       </c>
-      <c r="B15" t="n" s="99">
+    </row>
+    <row r="66" ht="25.0" customHeight="true">
+      <c r="A66" t="n" s="300">
         <v>24.0</v>
       </c>
-      <c r="C15" t="n" s="100">
+      <c r="B66" t="n" s="301">
         <v>25.0</v>
       </c>
-      <c r="D15" t="n" s="101">
+      <c r="C66" t="n" s="302">
         <v>26.0</v>
       </c>
-      <c r="E15" t="n" s="102">
+      <c r="D66" t="n" s="303">
         <v>27.0</v>
       </c>
-      <c r="F15" t="n" s="103">
+      <c r="E66" t="n" s="304">
         <v>28.0</v>
       </c>
-      <c r="G15" t="n" s="104">
+      <c r="F66" t="n" s="305">
         <v>29.0</v>
       </c>
-    </row>
-    <row r="16" ht="25.0" customHeight="true">
-      <c r="A16" t="n" s="105">
+      <c r="G66" t="n" s="306">
         <v>30.0</v>
       </c>
     </row>
-    <row r="19" ht="37.5" customHeight="true" s="106" customFormat="true">
-      <c r="A19" s="106" t="s">
+    <row r="70" ht="37.5" customHeight="true" s="307" customFormat="true">
+      <c r="A70" s="307" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" ht="37.5" customHeight="true">
+      <c r="A71" s="308" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="309" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="310" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="311" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="313" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="314" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="37.5" customHeight="true">
-      <c r="A20" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="109" t="s">
+    <row r="72" ht="25.0" customHeight="true">
+      <c r="A72" t="n" s="315">
+        <v>1.0</v>
+      </c>
+      <c r="B72" t="n" s="316">
+        <v>2.0</v>
+      </c>
+      <c r="C72" t="n" s="317">
+        <v>3.0</v>
+      </c>
+      <c r="D72" t="n" s="318">
+        <v>4.0</v>
+      </c>
+      <c r="E72" t="s" s="319">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s" s="320">
+        <v>51</v>
+      </c>
+      <c r="G72" t="n" s="321">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="73" ht="25.0" customHeight="true">
+      <c r="A73" t="n" s="322">
+        <v>8.0</v>
+      </c>
+      <c r="B73" t="n" s="323">
+        <v>9.0</v>
+      </c>
+      <c r="C73" t="n" s="324">
+        <v>10.0</v>
+      </c>
+      <c r="D73" t="n" s="325">
+        <v>11.0</v>
+      </c>
+      <c r="E73" t="n" s="326">
+        <v>12.0</v>
+      </c>
+      <c r="F73" t="n" s="327">
+        <v>13.0</v>
+      </c>
+      <c r="G73" t="n" s="328">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="74" ht="25.0" customHeight="true">
+      <c r="A74" t="n" s="329">
+        <v>15.0</v>
+      </c>
+      <c r="B74" t="n" s="330">
+        <v>16.0</v>
+      </c>
+      <c r="C74" t="n" s="331">
+        <v>17.0</v>
+      </c>
+      <c r="D74" t="n" s="332">
+        <v>18.0</v>
+      </c>
+      <c r="E74" t="n" s="333">
+        <v>19.0</v>
+      </c>
+      <c r="F74" t="n" s="334">
+        <v>20.0</v>
+      </c>
+      <c r="G74" t="n" s="335">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="75" ht="25.0" customHeight="true">
+      <c r="A75" t="n" s="336">
+        <v>22.0</v>
+      </c>
+      <c r="B75" t="n" s="337">
+        <v>23.0</v>
+      </c>
+      <c r="C75" t="n" s="338">
+        <v>24.0</v>
+      </c>
+      <c r="D75" t="n" s="339">
+        <v>25.0</v>
+      </c>
+      <c r="E75" t="n" s="340">
+        <v>26.0</v>
+      </c>
+      <c r="F75" t="n" s="341">
+        <v>27.0</v>
+      </c>
+      <c r="G75" t="n" s="342">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="76" ht="25.0" customHeight="true">
+      <c r="A76" t="n" s="343">
+        <v>29.0</v>
+      </c>
+      <c r="B76" t="n" s="344">
+        <v>30.0</v>
+      </c>
+      <c r="C76" t="n" s="345">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="80" ht="37.5" customHeight="true" s="346" customFormat="true">
+      <c r="A80" s="346" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" ht="37.5" customHeight="true">
+      <c r="A81" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="B81" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="C81" s="349" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="D81" s="350" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="E81" s="351" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" ht="25.0" customHeight="true">
-      <c r="A21" s="0"/>
-      <c r="B21" t="n" s="114">
+      <c r="F81" s="352" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="353" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" ht="25.0" customHeight="true">
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" t="n" s="354">
         <v>1.0</v>
       </c>
-      <c r="C21" t="s" s="115">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s" s="116">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s" s="117">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s" s="118">
-        <v>45</v>
-      </c>
-      <c r="G21" t="n" s="119">
+      <c r="E82" t="n" s="355">
+        <v>2.0</v>
+      </c>
+      <c r="F82" t="n" s="356">
+        <v>3.0</v>
+      </c>
+      <c r="G82" t="n" s="357">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="83" ht="25.0" customHeight="true">
+      <c r="A83" t="n" s="358">
+        <v>5.0</v>
+      </c>
+      <c r="B83" t="s" s="359">
+        <v>58</v>
+      </c>
+      <c r="C83" t="n" s="360">
+        <v>7.0</v>
+      </c>
+      <c r="D83" t="n" s="361">
+        <v>8.0</v>
+      </c>
+      <c r="E83" t="n" s="362">
+        <v>9.0</v>
+      </c>
+      <c r="F83" t="n" s="363">
+        <v>10.0</v>
+      </c>
+      <c r="G83" t="n" s="364">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="84" ht="25.0" customHeight="true">
+      <c r="A84" t="n" s="365">
+        <v>12.0</v>
+      </c>
+      <c r="B84" t="n" s="366">
+        <v>13.0</v>
+      </c>
+      <c r="C84" t="n" s="367">
+        <v>14.0</v>
+      </c>
+      <c r="D84" t="n" s="368">
+        <v>15.0</v>
+      </c>
+      <c r="E84" t="n" s="369">
+        <v>16.0</v>
+      </c>
+      <c r="F84" t="n" s="370">
+        <v>17.0</v>
+      </c>
+      <c r="G84" t="n" s="371">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="85" ht="25.0" customHeight="true">
+      <c r="A85" t="n" s="372">
+        <v>19.0</v>
+      </c>
+      <c r="B85" t="n" s="373">
+        <v>20.0</v>
+      </c>
+      <c r="C85" t="n" s="374">
+        <v>21.0</v>
+      </c>
+      <c r="D85" t="n" s="375">
+        <v>22.0</v>
+      </c>
+      <c r="E85" t="n" s="376">
+        <v>23.0</v>
+      </c>
+      <c r="F85" t="n" s="377">
+        <v>24.0</v>
+      </c>
+      <c r="G85" t="n" s="378">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="86" ht="25.0" customHeight="true">
+      <c r="A86" t="n" s="379">
+        <v>26.0</v>
+      </c>
+      <c r="B86" t="n" s="380">
+        <v>27.0</v>
+      </c>
+      <c r="C86" t="n" s="381">
+        <v>28.0</v>
+      </c>
+      <c r="D86" t="n" s="382">
+        <v>29.0</v>
+      </c>
+      <c r="E86" t="n" s="383">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="90" ht="37.5" customHeight="true" s="384" customFormat="true">
+      <c r="A90" s="384" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" ht="37.5" customHeight="true">
+      <c r="A91" s="385" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="386" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="387" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="388" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="389" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="390" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="391" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" ht="25.0" customHeight="true">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" t="n" s="392">
+        <v>1.0</v>
+      </c>
+      <c r="G92" t="n" s="393">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="93" ht="25.0" customHeight="true">
+      <c r="A93" t="n" s="394">
+        <v>3.0</v>
+      </c>
+      <c r="B93" t="n" s="395">
+        <v>4.0</v>
+      </c>
+      <c r="C93" t="s" s="396">
+        <v>47</v>
+      </c>
+      <c r="D93" t="s" s="397">
+        <v>51</v>
+      </c>
+      <c r="E93" t="n" s="398">
+        <v>7.0</v>
+      </c>
+      <c r="F93" t="n" s="399">
+        <v>8.0</v>
+      </c>
+      <c r="G93" t="n" s="400">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="94" ht="25.0" customHeight="true">
+      <c r="A94" t="n" s="401">
+        <v>10.0</v>
+      </c>
+      <c r="B94" t="n" s="402">
+        <v>11.0</v>
+      </c>
+      <c r="C94" t="n" s="403">
+        <v>12.0</v>
+      </c>
+      <c r="D94" t="n" s="404">
+        <v>13.0</v>
+      </c>
+      <c r="E94" t="n" s="405">
+        <v>14.0</v>
+      </c>
+      <c r="F94" t="n" s="406">
+        <v>15.0</v>
+      </c>
+      <c r="G94" t="n" s="407">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="95" ht="25.0" customHeight="true">
+      <c r="A95" t="n" s="408">
+        <v>17.0</v>
+      </c>
+      <c r="B95" t="n" s="409">
+        <v>18.0</v>
+      </c>
+      <c r="C95" t="n" s="410">
+        <v>19.0</v>
+      </c>
+      <c r="D95" t="n" s="411">
+        <v>20.0</v>
+      </c>
+      <c r="E95" t="n" s="412">
+        <v>21.0</v>
+      </c>
+      <c r="F95" t="n" s="413">
+        <v>22.0</v>
+      </c>
+      <c r="G95" t="n" s="414">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="96" ht="25.0" customHeight="true">
+      <c r="A96" t="n" s="415">
+        <v>24.0</v>
+      </c>
+      <c r="B96" t="n" s="416">
+        <v>25.0</v>
+      </c>
+      <c r="C96" t="n" s="417">
+        <v>26.0</v>
+      </c>
+      <c r="D96" t="n" s="418">
+        <v>27.0</v>
+      </c>
+      <c r="E96" t="n" s="419">
+        <v>28.0</v>
+      </c>
+      <c r="F96" t="n" s="420">
+        <v>29.0</v>
+      </c>
+      <c r="G96" t="n" s="421">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="97" ht="25.0" customHeight="true">
+      <c r="A97" t="n" s="422">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="100" ht="37.5" customHeight="true" s="423" customFormat="true">
+      <c r="A100" s="423" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" ht="37.5" customHeight="true">
+      <c r="A101" s="424" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="425" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="426" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="427" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="428" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="429" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="430" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" ht="25.0" customHeight="true">
+      <c r="A102" s="0"/>
+      <c r="B102" t="n" s="431">
+        <v>1.0</v>
+      </c>
+      <c r="C102" t="n" s="432">
+        <v>2.0</v>
+      </c>
+      <c r="D102" t="n" s="433">
+        <v>3.0</v>
+      </c>
+      <c r="E102" t="n" s="434">
+        <v>4.0</v>
+      </c>
+      <c r="F102" t="s" s="435">
+        <v>47</v>
+      </c>
+      <c r="G102" t="n" s="436">
         <v>6.0</v>
       </c>
     </row>
-    <row r="22" ht="25.0" customHeight="true">
-      <c r="A22" t="n" s="120">
+    <row r="103" ht="25.0" customHeight="true">
+      <c r="A103" t="n" s="437">
         <v>7.0</v>
       </c>
-      <c r="B22" t="n" s="121">
+      <c r="B103" t="s" s="438">
+        <v>48</v>
+      </c>
+      <c r="C103" t="n" s="439">
+        <v>9.0</v>
+      </c>
+      <c r="D103" t="n" s="440">
+        <v>10.0</v>
+      </c>
+      <c r="E103" t="n" s="441">
+        <v>11.0</v>
+      </c>
+      <c r="F103" t="n" s="442">
+        <v>12.0</v>
+      </c>
+      <c r="G103" t="n" s="443">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="104" ht="25.0" customHeight="true">
+      <c r="A104" t="n" s="444">
+        <v>14.0</v>
+      </c>
+      <c r="B104" t="n" s="445">
+        <v>15.0</v>
+      </c>
+      <c r="C104" t="n" s="446">
+        <v>16.0</v>
+      </c>
+      <c r="D104" t="n" s="447">
+        <v>17.0</v>
+      </c>
+      <c r="E104" t="n" s="448">
+        <v>18.0</v>
+      </c>
+      <c r="F104" t="n" s="449">
+        <v>19.0</v>
+      </c>
+      <c r="G104" t="n" s="450">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="105" ht="25.0" customHeight="true">
+      <c r="A105" t="n" s="451">
+        <v>21.0</v>
+      </c>
+      <c r="B105" t="n" s="452">
+        <v>22.0</v>
+      </c>
+      <c r="C105" t="n" s="453">
+        <v>23.0</v>
+      </c>
+      <c r="D105" t="n" s="454">
+        <v>24.0</v>
+      </c>
+      <c r="E105" t="n" s="455">
+        <v>25.0</v>
+      </c>
+      <c r="F105" t="n" s="456">
+        <v>26.0</v>
+      </c>
+      <c r="G105" t="n" s="457">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="106" ht="25.0" customHeight="true">
+      <c r="A106" t="n" s="458">
+        <v>28.0</v>
+      </c>
+      <c r="B106" t="n" s="459">
+        <v>29.0</v>
+      </c>
+      <c r="C106" t="n" s="460">
+        <v>30.0</v>
+      </c>
+      <c r="D106" t="n" s="461">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="110" ht="37.5" customHeight="true" s="462" customFormat="true">
+      <c r="A110" s="462" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" ht="37.5" customHeight="true">
+      <c r="A111" s="463" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="464" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="465" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="466" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="467" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="468" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="469" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" ht="25.0" customHeight="true">
+      <c r="A112" s="0"/>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" t="n" s="470">
+        <v>1.0</v>
+      </c>
+      <c r="F112" t="n" s="471">
+        <v>2.0</v>
+      </c>
+      <c r="G112" t="n" s="472">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113" ht="25.0" customHeight="true">
+      <c r="A113" t="n" s="473">
+        <v>4.0</v>
+      </c>
+      <c r="B113" t="n" s="474">
+        <v>5.0</v>
+      </c>
+      <c r="C113" t="s" s="475">
+        <v>51</v>
+      </c>
+      <c r="D113" t="n" s="476">
+        <v>7.0</v>
+      </c>
+      <c r="E113" t="n" s="477">
         <v>8.0</v>
       </c>
-      <c r="C22" t="n" s="122">
+      <c r="F113" t="n" s="478">
         <v>9.0</v>
       </c>
-      <c r="D22" t="n" s="123">
+      <c r="G113" t="n" s="479">
         <v>10.0</v>
       </c>
-      <c r="E22" t="n" s="124">
+    </row>
+    <row r="114" ht="25.0" customHeight="true">
+      <c r="A114" t="n" s="480">
         <v>11.0</v>
       </c>
-      <c r="F22" t="n" s="125">
+      <c r="B114" t="n" s="481">
         <v>12.0</v>
       </c>
-      <c r="G22" t="n" s="126">
+      <c r="C114" t="n" s="482">
         <v>13.0</v>
       </c>
-    </row>
-    <row r="23" ht="25.0" customHeight="true">
-      <c r="A23" t="n" s="127">
+      <c r="D114" t="n" s="483">
         <v>14.0</v>
       </c>
-      <c r="B23" t="n" s="128">
+      <c r="E114" t="n" s="484">
         <v>15.0</v>
       </c>
-      <c r="C23" t="n" s="129">
+      <c r="F114" t="n" s="485">
         <v>16.0</v>
       </c>
-      <c r="D23" t="n" s="130">
+      <c r="G114" t="n" s="486">
         <v>17.0</v>
       </c>
-      <c r="E23" t="n" s="131">
+    </row>
+    <row r="115" ht="25.0" customHeight="true">
+      <c r="A115" t="n" s="487">
         <v>18.0</v>
       </c>
-      <c r="F23" t="n" s="132">
+      <c r="B115" t="n" s="488">
         <v>19.0</v>
       </c>
-      <c r="G23" t="n" s="133">
+      <c r="C115" t="n" s="489">
         <v>20.0</v>
       </c>
-    </row>
-    <row r="24" ht="25.0" customHeight="true">
-      <c r="A24" t="n" s="134">
+      <c r="D115" t="n" s="490">
         <v>21.0</v>
       </c>
-      <c r="B24" t="n" s="135">
+      <c r="E115" t="n" s="491">
         <v>22.0</v>
       </c>
-      <c r="C24" t="n" s="136">
+      <c r="F115" t="n" s="492">
         <v>23.0</v>
       </c>
-      <c r="D24" t="n" s="137">
+      <c r="G115" t="n" s="493">
         <v>24.0</v>
       </c>
-      <c r="E24" t="n" s="138">
+    </row>
+    <row r="116" ht="25.0" customHeight="true">
+      <c r="A116" t="n" s="494">
         <v>25.0</v>
       </c>
-      <c r="F24" t="n" s="139">
+      <c r="B116" t="n" s="495">
         <v>26.0</v>
       </c>
-      <c r="G24" t="n" s="140">
+      <c r="C116" t="n" s="496">
         <v>27.0</v>
       </c>
-    </row>
-    <row r="25" ht="25.0" customHeight="true">
-      <c r="A25" t="n" s="141">
+      <c r="D116" t="n" s="497">
         <v>28.0</v>
       </c>
-      <c r="B25" t="n" s="142">
+      <c r="E116" t="n" s="498">
         <v>29.0</v>
       </c>
-      <c r="C25" t="n" s="143">
+    </row>
+    <row r="120" ht="37.5" customHeight="true" s="499" customFormat="true">
+      <c r="A120" s="499" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" ht="37.5" customHeight="true">
+      <c r="A121" s="500" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="501" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="502" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="503" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="504" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="505" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="506" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" ht="25.0" customHeight="true">
+      <c r="A122" s="0"/>
+      <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" t="n" s="507">
+        <v>1.0</v>
+      </c>
+      <c r="G122" t="n" s="508">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123" ht="25.0" customHeight="true">
+      <c r="A123" t="n" s="509">
+        <v>3.0</v>
+      </c>
+      <c r="B123" t="n" s="510">
+        <v>4.0</v>
+      </c>
+      <c r="C123" t="n" s="511">
+        <v>5.0</v>
+      </c>
+      <c r="D123" t="s" s="512">
+        <v>51</v>
+      </c>
+      <c r="E123" t="n" s="513">
+        <v>7.0</v>
+      </c>
+      <c r="F123" t="n" s="514">
+        <v>8.0</v>
+      </c>
+      <c r="G123" t="n" s="515">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="124" ht="25.0" customHeight="true">
+      <c r="A124" t="n" s="516">
+        <v>10.0</v>
+      </c>
+      <c r="B124" t="n" s="517">
+        <v>11.0</v>
+      </c>
+      <c r="C124" t="n" s="518">
+        <v>12.0</v>
+      </c>
+      <c r="D124" t="n" s="519">
+        <v>13.0</v>
+      </c>
+      <c r="E124" t="n" s="520">
+        <v>14.0</v>
+      </c>
+      <c r="F124" t="n" s="521">
+        <v>15.0</v>
+      </c>
+      <c r="G124" t="n" s="522">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="125" ht="25.0" customHeight="true">
+      <c r="A125" t="n" s="523">
+        <v>17.0</v>
+      </c>
+      <c r="B125" t="n" s="524">
+        <v>18.0</v>
+      </c>
+      <c r="C125" t="n" s="525">
+        <v>19.0</v>
+      </c>
+      <c r="D125" t="n" s="526">
+        <v>20.0</v>
+      </c>
+      <c r="E125" t="n" s="527">
+        <v>21.0</v>
+      </c>
+      <c r="F125" t="n" s="528">
+        <v>22.0</v>
+      </c>
+      <c r="G125" t="n" s="529">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="126" ht="25.0" customHeight="true">
+      <c r="A126" t="n" s="530">
+        <v>24.0</v>
+      </c>
+      <c r="B126" t="n" s="531">
+        <v>25.0</v>
+      </c>
+      <c r="C126" t="n" s="532">
+        <v>26.0</v>
+      </c>
+      <c r="D126" t="n" s="533">
+        <v>27.0</v>
+      </c>
+      <c r="E126" t="n" s="534">
+        <v>28.0</v>
+      </c>
+      <c r="F126" t="n" s="535">
+        <v>29.0</v>
+      </c>
+      <c r="G126" t="n" s="536">
         <v>30.0</v>
       </c>
-      <c r="D25" t="n" s="144">
+    </row>
+    <row r="127" ht="25.0" customHeight="true">
+      <c r="A127" t="n" s="537">
         <v>31.0</v>
       </c>
     </row>
-    <row r="29" ht="37.5" customHeight="true" s="145" customFormat="true">
-      <c r="A29" s="145" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" ht="37.5" customHeight="true">
-      <c r="A30" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="147" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="148" t="s">
+    <row r="130" ht="37.5" customHeight="true" s="538" customFormat="true">
+      <c r="A130" s="538" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" ht="37.5" customHeight="true">
+      <c r="A131" s="539" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="B131" s="540" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="150" t="s">
+      <c r="C131" s="541" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="151" t="s">
+      <c r="D131" s="542" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="152" t="s">
+      <c r="E131" s="543" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" ht="25.0" customHeight="true">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" t="n" s="153">
+      <c r="F131" s="544" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="545" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" ht="25.0" customHeight="true">
+      <c r="A132" s="0"/>
+      <c r="B132" t="n" s="546">
         <v>1.0</v>
       </c>
-      <c r="F31" t="n" s="154">
+      <c r="C132" t="n" s="547">
         <v>2.0</v>
       </c>
-      <c r="G31" t="n" s="155">
+      <c r="D132" t="n" s="548">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="32" ht="25.0" customHeight="true">
-      <c r="A32" t="n" s="156">
+      <c r="E132" t="n" s="549">
         <v>4.0</v>
       </c>
-      <c r="B32" t="s" s="157">
-        <v>47</v>
-      </c>
-      <c r="C32" t="n" s="158">
+      <c r="F132" t="n" s="550">
+        <v>5.0</v>
+      </c>
+      <c r="G132" t="n" s="551">
         <v>6.0</v>
       </c>
-      <c r="D32" t="n" s="159">
+    </row>
+    <row r="133" ht="25.0" customHeight="true">
+      <c r="A133" t="n" s="552">
         <v>7.0</v>
       </c>
-      <c r="E32" t="n" s="160">
-        <v>8.0</v>
-      </c>
-      <c r="F32" t="n" s="161">
+      <c r="B133" t="s" s="553">
+        <v>48</v>
+      </c>
+      <c r="C133" t="n" s="554">
         <v>9.0</v>
       </c>
-      <c r="G32" t="n" s="162">
+      <c r="D133" t="n" s="555">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="33" ht="25.0" customHeight="true">
-      <c r="A33" t="n" s="163">
+      <c r="E133" t="n" s="556">
         <v>11.0</v>
       </c>
-      <c r="B33" t="n" s="164">
+      <c r="F133" t="n" s="557">
         <v>12.0</v>
       </c>
-      <c r="C33" t="n" s="165">
+      <c r="G133" t="n" s="558">
         <v>13.0</v>
       </c>
-      <c r="D33" t="n" s="166">
+    </row>
+    <row r="134" ht="25.0" customHeight="true">
+      <c r="A134" t="n" s="559">
         <v>14.0</v>
       </c>
-      <c r="E33" t="n" s="167">
+      <c r="B134" t="n" s="560">
         <v>15.0</v>
       </c>
-      <c r="F33" t="n" s="168">
+      <c r="C134" t="n" s="561">
         <v>16.0</v>
       </c>
-      <c r="G33" t="n" s="169">
+      <c r="D134" t="n" s="562">
         <v>17.0</v>
       </c>
-    </row>
-    <row r="34" ht="25.0" customHeight="true">
-      <c r="A34" t="n" s="170">
+      <c r="E134" t="n" s="563">
         <v>18.0</v>
       </c>
-      <c r="B34" t="n" s="171">
+      <c r="F134" t="n" s="564">
         <v>19.0</v>
       </c>
-      <c r="C34" t="n" s="172">
+      <c r="G134" t="n" s="565">
         <v>20.0</v>
       </c>
-      <c r="D34" t="n" s="173">
+    </row>
+    <row r="135" ht="25.0" customHeight="true">
+      <c r="A135" t="n" s="566">
         <v>21.0</v>
       </c>
-      <c r="E34" t="n" s="174">
+      <c r="B135" t="n" s="567">
         <v>22.0</v>
       </c>
-      <c r="F34" t="n" s="175">
+      <c r="C135" t="n" s="568">
         <v>23.0</v>
       </c>
-      <c r="G34" t="n" s="176">
+      <c r="D135" t="n" s="569">
         <v>24.0</v>
       </c>
-    </row>
-    <row r="35" ht="25.0" customHeight="true">
-      <c r="A35" t="n" s="177">
+      <c r="E135" t="n" s="570">
         <v>25.0</v>
       </c>
-      <c r="B35" t="n" s="178">
+      <c r="F135" t="n" s="571">
         <v>26.0</v>
       </c>
-      <c r="C35" t="n" s="179">
+      <c r="G135" t="n" s="572">
         <v>27.0</v>
       </c>
-      <c r="D35" t="n" s="180">
+    </row>
+    <row r="136" ht="25.0" customHeight="true">
+      <c r="A136" t="n" s="573">
         <v>28.0</v>
       </c>
-      <c r="E35" t="n" s="181">
+      <c r="B136" t="n" s="574">
         <v>29.0</v>
       </c>
-      <c r="F35" t="n" s="182">
+      <c r="C136" t="n" s="575">
         <v>30.0</v>
-      </c>
-    </row>
-    <row r="39" ht="37.5" customHeight="true" s="183" customFormat="true">
-      <c r="A39" s="183" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" ht="37.5" customHeight="true">
-      <c r="A40" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="185" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="186" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="187" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="188" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="189" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="190" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" ht="25.0" customHeight="true">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" t="n" s="191">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="25.0" customHeight="true">
-      <c r="A42" t="n" s="192">
-        <v>2.0</v>
-      </c>
-      <c r="B42" t="s" s="193">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s" s="194">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s" s="195">
-        <v>45</v>
-      </c>
-      <c r="E42" t="n" s="196">
-        <v>6.0</v>
-      </c>
-      <c r="F42" t="n" s="197">
-        <v>7.0</v>
-      </c>
-      <c r="G42" t="n" s="198">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="43" ht="25.0" customHeight="true">
-      <c r="A43" t="n" s="199">
-        <v>9.0</v>
-      </c>
-      <c r="B43" t="n" s="200">
-        <v>10.0</v>
-      </c>
-      <c r="C43" t="n" s="201">
-        <v>11.0</v>
-      </c>
-      <c r="D43" t="n" s="202">
-        <v>12.0</v>
-      </c>
-      <c r="E43" t="n" s="203">
-        <v>13.0</v>
-      </c>
-      <c r="F43" t="n" s="204">
-        <v>14.0</v>
-      </c>
-      <c r="G43" t="n" s="205">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="44" ht="25.0" customHeight="true">
-      <c r="A44" t="n" s="206">
-        <v>16.0</v>
-      </c>
-      <c r="B44" t="n" s="207">
-        <v>17.0</v>
-      </c>
-      <c r="C44" t="n" s="208">
-        <v>18.0</v>
-      </c>
-      <c r="D44" t="n" s="209">
-        <v>19.0</v>
-      </c>
-      <c r="E44" t="n" s="210">
-        <v>20.0</v>
-      </c>
-      <c r="F44" t="n" s="211">
-        <v>21.0</v>
-      </c>
-      <c r="G44" t="n" s="212">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="45" ht="25.0" customHeight="true">
-      <c r="A45" t="n" s="213">
-        <v>23.0</v>
-      </c>
-      <c r="B45" t="n" s="214">
-        <v>24.0</v>
-      </c>
-      <c r="C45" t="n" s="215">
-        <v>25.0</v>
-      </c>
-      <c r="D45" t="n" s="216">
-        <v>26.0</v>
-      </c>
-      <c r="E45" t="n" s="217">
-        <v>27.0</v>
-      </c>
-      <c r="F45" t="n" s="218">
-        <v>28.0</v>
-      </c>
-      <c r="G45" t="n" s="219">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="46" ht="25.0" customHeight="true">
-      <c r="A46" t="n" s="220">
-        <v>30.0</v>
-      </c>
-      <c r="B46" t="n" s="221">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="49" ht="37.5" customHeight="true" s="222" customFormat="true">
-      <c r="A49" s="222" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" ht="37.5" customHeight="true">
-      <c r="A50" s="223" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="224" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="225" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="226" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="227" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="228" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="229" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" ht="25.0" customHeight="true">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" t="n" s="230">
-        <v>1.0</v>
-      </c>
-      <c r="D51" t="n" s="231">
-        <v>2.0</v>
-      </c>
-      <c r="E51" t="n" s="232">
-        <v>3.0</v>
-      </c>
-      <c r="F51" t="n" s="233">
-        <v>4.0</v>
-      </c>
-      <c r="G51" t="n" s="234">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="52" ht="25.0" customHeight="true">
-      <c r="A52" t="n" s="235">
-        <v>6.0</v>
-      </c>
-      <c r="B52" t="s" s="236">
-        <v>50</v>
-      </c>
-      <c r="C52" t="n" s="237">
-        <v>8.0</v>
-      </c>
-      <c r="D52" t="n" s="238">
-        <v>9.0</v>
-      </c>
-      <c r="E52" t="n" s="239">
-        <v>10.0</v>
-      </c>
-      <c r="F52" t="n" s="240">
-        <v>11.0</v>
-      </c>
-      <c r="G52" t="n" s="241">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="53" ht="25.0" customHeight="true">
-      <c r="A53" t="n" s="242">
-        <v>13.0</v>
-      </c>
-      <c r="B53" t="n" s="243">
-        <v>14.0</v>
-      </c>
-      <c r="C53" t="n" s="244">
-        <v>15.0</v>
-      </c>
-      <c r="D53" t="n" s="245">
-        <v>16.0</v>
-      </c>
-      <c r="E53" t="n" s="246">
-        <v>17.0</v>
-      </c>
-      <c r="F53" t="n" s="247">
-        <v>18.0</v>
-      </c>
-      <c r="G53" t="n" s="248">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="54" ht="25.0" customHeight="true">
-      <c r="A54" t="n" s="249">
-        <v>20.0</v>
-      </c>
-      <c r="B54" t="n" s="250">
-        <v>21.0</v>
-      </c>
-      <c r="C54" t="n" s="251">
-        <v>22.0</v>
-      </c>
-      <c r="D54" t="n" s="252">
-        <v>23.0</v>
-      </c>
-      <c r="E54" t="n" s="253">
-        <v>24.0</v>
-      </c>
-      <c r="F54" t="n" s="254">
-        <v>25.0</v>
-      </c>
-      <c r="G54" t="n" s="255">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="55" ht="25.0" customHeight="true">
-      <c r="A55" t="n" s="256">
-        <v>27.0</v>
-      </c>
-      <c r="B55" t="n" s="257">
-        <v>28.0</v>
-      </c>
-      <c r="C55" t="n" s="258">
-        <v>29.0</v>
-      </c>
-      <c r="D55" t="n" s="259">
-        <v>30.0</v>
-      </c>
-      <c r="E55" t="n" s="260">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="59" ht="37.5" customHeight="true" s="261" customFormat="true">
-      <c r="A59" s="261" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" ht="37.5" customHeight="true">
-      <c r="A60" s="262" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="263" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="264" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="265" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="266" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="267" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="268" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" ht="25.0" customHeight="true">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" t="n" s="269">
-        <v>1.0</v>
-      </c>
-      <c r="G61" t="n" s="270">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62" ht="25.0" customHeight="true">
-      <c r="A62" t="n" s="271">
-        <v>3.0</v>
-      </c>
-      <c r="B62" t="n" s="272">
-        <v>4.0</v>
-      </c>
-      <c r="C62" t="s" s="273">
-        <v>45</v>
-      </c>
-      <c r="D62" t="n" s="274">
-        <v>6.0</v>
-      </c>
-      <c r="E62" t="n" s="275">
-        <v>7.0</v>
-      </c>
-      <c r="F62" t="n" s="276">
-        <v>8.0</v>
-      </c>
-      <c r="G62" t="n" s="277">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="63" ht="25.0" customHeight="true">
-      <c r="A63" t="n" s="278">
-        <v>10.0</v>
-      </c>
-      <c r="B63" t="n" s="279">
-        <v>11.0</v>
-      </c>
-      <c r="C63" t="n" s="280">
-        <v>12.0</v>
-      </c>
-      <c r="D63" t="n" s="281">
-        <v>13.0</v>
-      </c>
-      <c r="E63" t="n" s="282">
-        <v>14.0</v>
-      </c>
-      <c r="F63" t="n" s="283">
-        <v>15.0</v>
-      </c>
-      <c r="G63" t="n" s="284">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="64" ht="25.0" customHeight="true">
-      <c r="A64" t="n" s="285">
-        <v>17.0</v>
-      </c>
-      <c r="B64" t="n" s="286">
-        <v>18.0</v>
-      </c>
-      <c r="C64" t="n" s="287">
-        <v>19.0</v>
-      </c>
-      <c r="D64" t="n" s="288">
-        <v>20.0</v>
-      </c>
-      <c r="E64" t="n" s="289">
-        <v>21.0</v>
-      </c>
-      <c r="F64" t="n" s="290">
-        <v>22.0</v>
-      </c>
-      <c r="G64" t="n" s="291">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="65" ht="25.0" customHeight="true">
-      <c r="A65" t="n" s="292">
-        <v>24.0</v>
-      </c>
-      <c r="B65" t="n" s="293">
-        <v>25.0</v>
-      </c>
-      <c r="C65" t="n" s="294">
-        <v>26.0</v>
-      </c>
-      <c r="D65" t="n" s="295">
-        <v>27.0</v>
-      </c>
-      <c r="E65" t="n" s="296">
-        <v>28.0</v>
-      </c>
-      <c r="F65" t="n" s="297">
-        <v>29.0</v>
-      </c>
-      <c r="G65" t="n" s="298">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="69" ht="37.5" customHeight="true" s="299" customFormat="true">
-      <c r="A69" s="299" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" ht="37.5" customHeight="true">
-      <c r="A70" s="300" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="301" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="302" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="303" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="304" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="305" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="306" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" ht="25.0" customHeight="true">
-      <c r="A71" t="n" s="307">
-        <v>1.0</v>
-      </c>
-      <c r="B71" t="n" s="308">
-        <v>2.0</v>
-      </c>
-      <c r="C71" t="n" s="309">
-        <v>3.0</v>
-      </c>
-      <c r="D71" t="n" s="310">
-        <v>4.0</v>
-      </c>
-      <c r="E71" t="s" s="311">
-        <v>45</v>
-      </c>
-      <c r="F71" t="n" s="312">
-        <v>6.0</v>
-      </c>
-      <c r="G71" t="n" s="313">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="72" ht="25.0" customHeight="true">
-      <c r="A72" t="n" s="314">
-        <v>8.0</v>
-      </c>
-      <c r="B72" t="n" s="315">
-        <v>9.0</v>
-      </c>
-      <c r="C72" t="n" s="316">
-        <v>10.0</v>
-      </c>
-      <c r="D72" t="n" s="317">
-        <v>11.0</v>
-      </c>
-      <c r="E72" t="n" s="318">
-        <v>12.0</v>
-      </c>
-      <c r="F72" t="n" s="319">
-        <v>13.0</v>
-      </c>
-      <c r="G72" t="n" s="320">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="73" ht="25.0" customHeight="true">
-      <c r="A73" t="n" s="321">
-        <v>15.0</v>
-      </c>
-      <c r="B73" t="n" s="322">
-        <v>16.0</v>
-      </c>
-      <c r="C73" t="n" s="323">
-        <v>17.0</v>
-      </c>
-      <c r="D73" t="n" s="324">
-        <v>18.0</v>
-      </c>
-      <c r="E73" t="n" s="325">
-        <v>19.0</v>
-      </c>
-      <c r="F73" t="n" s="326">
-        <v>20.0</v>
-      </c>
-      <c r="G73" t="n" s="327">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="74" ht="25.0" customHeight="true">
-      <c r="A74" t="n" s="328">
-        <v>22.0</v>
-      </c>
-      <c r="B74" t="n" s="329">
-        <v>23.0</v>
-      </c>
-      <c r="C74" t="n" s="330">
-        <v>24.0</v>
-      </c>
-      <c r="D74" t="n" s="331">
-        <v>25.0</v>
-      </c>
-      <c r="E74" t="n" s="332">
-        <v>26.0</v>
-      </c>
-      <c r="F74" t="n" s="333">
-        <v>27.0</v>
-      </c>
-      <c r="G74" t="n" s="334">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="75" ht="25.0" customHeight="true">
-      <c r="A75" t="n" s="335">
-        <v>29.0</v>
-      </c>
-      <c r="B75" t="n" s="336">
-        <v>30.0</v>
-      </c>
-      <c r="C75" t="n" s="337">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="79" ht="37.5" customHeight="true" s="338" customFormat="true">
-      <c r="A79" s="338" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" ht="37.5" customHeight="true">
-      <c r="A80" s="339" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="340" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="341" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="342" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="343" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="344" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="345" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" ht="25.0" customHeight="true">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" t="n" s="346">
-        <v>1.0</v>
-      </c>
-      <c r="E81" t="n" s="347">
-        <v>2.0</v>
-      </c>
-      <c r="F81" t="n" s="348">
-        <v>3.0</v>
-      </c>
-      <c r="G81" t="n" s="349">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="82" ht="25.0" customHeight="true">
-      <c r="A82" t="n" s="350">
-        <v>5.0</v>
-      </c>
-      <c r="B82" t="s" s="351">
-        <v>54</v>
-      </c>
-      <c r="C82" t="n" s="352">
-        <v>7.0</v>
-      </c>
-      <c r="D82" t="n" s="353">
-        <v>8.0</v>
-      </c>
-      <c r="E82" t="n" s="354">
-        <v>9.0</v>
-      </c>
-      <c r="F82" t="n" s="355">
-        <v>10.0</v>
-      </c>
-      <c r="G82" t="n" s="356">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="83" ht="25.0" customHeight="true">
-      <c r="A83" t="n" s="357">
-        <v>12.0</v>
-      </c>
-      <c r="B83" t="n" s="358">
-        <v>13.0</v>
-      </c>
-      <c r="C83" t="n" s="359">
-        <v>14.0</v>
-      </c>
-      <c r="D83" t="n" s="360">
-        <v>15.0</v>
-      </c>
-      <c r="E83" t="n" s="361">
-        <v>16.0</v>
-      </c>
-      <c r="F83" t="n" s="362">
-        <v>17.0</v>
-      </c>
-      <c r="G83" t="n" s="363">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="84" ht="25.0" customHeight="true">
-      <c r="A84" t="n" s="364">
-        <v>19.0</v>
-      </c>
-      <c r="B84" t="n" s="365">
-        <v>20.0</v>
-      </c>
-      <c r="C84" t="n" s="366">
-        <v>21.0</v>
-      </c>
-      <c r="D84" t="n" s="367">
-        <v>22.0</v>
-      </c>
-      <c r="E84" t="n" s="368">
-        <v>23.0</v>
-      </c>
-      <c r="F84" t="n" s="369">
-        <v>24.0</v>
-      </c>
-      <c r="G84" t="n" s="370">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="85" ht="25.0" customHeight="true">
-      <c r="A85" t="n" s="371">
-        <v>26.0</v>
-      </c>
-      <c r="B85" t="n" s="372">
-        <v>27.0</v>
-      </c>
-      <c r="C85" t="n" s="373">
-        <v>28.0</v>
-      </c>
-      <c r="D85" t="n" s="374">
-        <v>29.0</v>
-      </c>
-      <c r="E85" t="n" s="375">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="89" ht="37.5" customHeight="true" s="376" customFormat="true">
-      <c r="A89" s="376" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" ht="37.5" customHeight="true">
-      <c r="A90" s="377" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="378" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="379" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="380" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="381" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="382" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="383" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" ht="25.0" customHeight="true">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
-      <c r="C91" s="0"/>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-      <c r="F91" t="n" s="384">
-        <v>1.0</v>
-      </c>
-      <c r="G91" t="n" s="385">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92" ht="25.0" customHeight="true">
-      <c r="A92" t="n" s="386">
-        <v>3.0</v>
-      </c>
-      <c r="B92" t="n" s="387">
-        <v>4.0</v>
-      </c>
-      <c r="C92" t="s" s="388">
-        <v>45</v>
-      </c>
-      <c r="D92" t="n" s="389">
-        <v>6.0</v>
-      </c>
-      <c r="E92" t="n" s="390">
-        <v>7.0</v>
-      </c>
-      <c r="F92" t="n" s="391">
-        <v>8.0</v>
-      </c>
-      <c r="G92" t="n" s="392">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="93" ht="25.0" customHeight="true">
-      <c r="A93" t="n" s="393">
-        <v>10.0</v>
-      </c>
-      <c r="B93" t="n" s="394">
-        <v>11.0</v>
-      </c>
-      <c r="C93" t="n" s="395">
-        <v>12.0</v>
-      </c>
-      <c r="D93" t="n" s="396">
-        <v>13.0</v>
-      </c>
-      <c r="E93" t="n" s="397">
-        <v>14.0</v>
-      </c>
-      <c r="F93" t="n" s="398">
-        <v>15.0</v>
-      </c>
-      <c r="G93" t="n" s="399">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="94" ht="25.0" customHeight="true">
-      <c r="A94" t="n" s="400">
-        <v>17.0</v>
-      </c>
-      <c r="B94" t="n" s="401">
-        <v>18.0</v>
-      </c>
-      <c r="C94" t="n" s="402">
-        <v>19.0</v>
-      </c>
-      <c r="D94" t="n" s="403">
-        <v>20.0</v>
-      </c>
-      <c r="E94" t="n" s="404">
-        <v>21.0</v>
-      </c>
-      <c r="F94" t="n" s="405">
-        <v>22.0</v>
-      </c>
-      <c r="G94" t="n" s="406">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="95" ht="25.0" customHeight="true">
-      <c r="A95" t="n" s="407">
-        <v>24.0</v>
-      </c>
-      <c r="B95" t="n" s="408">
-        <v>25.0</v>
-      </c>
-      <c r="C95" t="n" s="409">
-        <v>26.0</v>
-      </c>
-      <c r="D95" t="n" s="410">
-        <v>27.0</v>
-      </c>
-      <c r="E95" t="n" s="411">
-        <v>28.0</v>
-      </c>
-      <c r="F95" t="n" s="412">
-        <v>29.0</v>
-      </c>
-      <c r="G95" t="n" s="413">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="96" ht="25.0" customHeight="true">
-      <c r="A96" t="n" s="414">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="99" ht="37.5" customHeight="true" s="415" customFormat="true">
-      <c r="A99" s="415" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" ht="37.5" customHeight="true">
-      <c r="A100" s="416" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="417" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="418" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="419" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="420" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" s="421" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="422" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" ht="25.0" customHeight="true">
-      <c r="A101" s="0"/>
-      <c r="B101" t="n" s="423">
-        <v>1.0</v>
-      </c>
-      <c r="C101" t="n" s="424">
-        <v>2.0</v>
-      </c>
-      <c r="D101" t="n" s="425">
-        <v>3.0</v>
-      </c>
-      <c r="E101" t="n" s="426">
-        <v>4.0</v>
-      </c>
-      <c r="F101" t="s" s="427">
-        <v>45</v>
-      </c>
-      <c r="G101" t="n" s="428">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="102" ht="25.0" customHeight="true">
-      <c r="A102" t="n" s="429">
-        <v>7.0</v>
-      </c>
-      <c r="B102" t="n" s="430">
-        <v>8.0</v>
-      </c>
-      <c r="C102" t="n" s="431">
-        <v>9.0</v>
-      </c>
-      <c r="D102" t="n" s="432">
-        <v>10.0</v>
-      </c>
-      <c r="E102" t="n" s="433">
-        <v>11.0</v>
-      </c>
-      <c r="F102" t="n" s="434">
-        <v>12.0</v>
-      </c>
-      <c r="G102" t="n" s="435">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="103" ht="25.0" customHeight="true">
-      <c r="A103" t="n" s="436">
-        <v>14.0</v>
-      </c>
-      <c r="B103" t="n" s="437">
-        <v>15.0</v>
-      </c>
-      <c r="C103" t="n" s="438">
-        <v>16.0</v>
-      </c>
-      <c r="D103" t="n" s="439">
-        <v>17.0</v>
-      </c>
-      <c r="E103" t="n" s="440">
-        <v>18.0</v>
-      </c>
-      <c r="F103" t="n" s="441">
-        <v>19.0</v>
-      </c>
-      <c r="G103" t="n" s="442">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="104" ht="25.0" customHeight="true">
-      <c r="A104" t="n" s="443">
-        <v>21.0</v>
-      </c>
-      <c r="B104" t="n" s="444">
-        <v>22.0</v>
-      </c>
-      <c r="C104" t="n" s="445">
-        <v>23.0</v>
-      </c>
-      <c r="D104" t="n" s="446">
-        <v>24.0</v>
-      </c>
-      <c r="E104" t="n" s="447">
-        <v>25.0</v>
-      </c>
-      <c r="F104" t="n" s="448">
-        <v>26.0</v>
-      </c>
-      <c r="G104" t="n" s="449">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="105" ht="25.0" customHeight="true">
-      <c r="A105" t="n" s="450">
-        <v>28.0</v>
-      </c>
-      <c r="B105" t="n" s="451">
-        <v>29.0</v>
-      </c>
-      <c r="C105" t="n" s="452">
-        <v>30.0</v>
-      </c>
-      <c r="D105" t="n" s="453">
-        <v>31.0</v>
       </c>
     </row>
   </sheetData>
